--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H2">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I2">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J2">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.709791333333333</v>
+        <v>3.248861</v>
       </c>
       <c r="N2">
-        <v>11.129374</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O2">
-        <v>0.4283284425582907</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P2">
-        <v>0.4283284425582907</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q2">
-        <v>36.03109853238355</v>
+        <v>29.34360100777233</v>
       </c>
       <c r="R2">
-        <v>324.279886791452</v>
+        <v>264.092409069951</v>
       </c>
       <c r="S2">
-        <v>0.1987042642562488</v>
+        <v>0.1666804358766924</v>
       </c>
       <c r="T2">
-        <v>0.1987042642562488</v>
+        <v>0.1666804358766923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H3">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I3">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J3">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.599001333333333</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
         <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.4155367505499981</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P3">
-        <v>0.4155367505499981</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q3">
-        <v>34.95505811724355</v>
+        <v>32.50605647695422</v>
       </c>
       <c r="R3">
-        <v>314.595523055192</v>
+        <v>292.554508292588</v>
       </c>
       <c r="S3">
-        <v>0.1927701177075885</v>
+        <v>0.1846441294228338</v>
       </c>
       <c r="T3">
-        <v>0.1927701177075885</v>
+        <v>0.1846441294228337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H4">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I4">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J4">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.352297666666667</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N4">
-        <v>4.056893000000001</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O4">
-        <v>0.1561348068917112</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P4">
-        <v>0.1561348068917112</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q4">
-        <v>13.13410003279045</v>
+        <v>0.2451666867112222</v>
       </c>
       <c r="R4">
-        <v>118.206900295114</v>
+        <v>2.206500180401</v>
       </c>
       <c r="S4">
-        <v>0.07243192103449179</v>
+        <v>0.001392620155673706</v>
       </c>
       <c r="T4">
-        <v>0.07243192103449178</v>
+        <v>0.001392620155673705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.124904999999998</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H5">
-        <v>27.37471499999999</v>
+        <v>27.095897</v>
       </c>
       <c r="I5">
-        <v>0.4358435305594535</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J5">
-        <v>0.4358435305594534</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.709791333333333</v>
+        <v>1.711959</v>
       </c>
       <c r="N5">
-        <v>11.129374</v>
+        <v>5.135877</v>
       </c>
       <c r="O5">
-        <v>0.4283284425582907</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P5">
-        <v>0.4283284425582907</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q5">
-        <v>33.85149348648999</v>
+        <v>15.462354910741</v>
       </c>
       <c r="R5">
-        <v>304.66344137841</v>
+        <v>139.161194196669</v>
       </c>
       <c r="S5">
-        <v>0.1866841806436375</v>
+        <v>0.08783080357178299</v>
       </c>
       <c r="T5">
-        <v>0.1866841806436375</v>
+        <v>0.08783080357178297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.124904999999998</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H6">
-        <v>27.37471499999999</v>
+        <v>27.095897</v>
       </c>
       <c r="I6">
-        <v>0.4358435305594535</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J6">
-        <v>0.4358435305594534</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.599001333333333</v>
+        <v>0.03689</v>
       </c>
       <c r="N6">
-        <v>10.797004</v>
+        <v>0.11067</v>
       </c>
       <c r="O6">
-        <v>0.4155367505499981</v>
+        <v>0.004277668994692127</v>
       </c>
       <c r="P6">
-        <v>0.4155367505499981</v>
+        <v>0.004277668994692126</v>
       </c>
       <c r="Q6">
-        <v>32.84054526153999</v>
+        <v>0.3331892134433333</v>
       </c>
       <c r="R6">
-        <v>295.56490735386</v>
+        <v>2.99870292099</v>
       </c>
       <c r="S6">
-        <v>0.1811090044369141</v>
+        <v>0.001892614451492749</v>
       </c>
       <c r="T6">
-        <v>0.1811090044369141</v>
+        <v>0.001892614451492748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J7">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.352297666666667</v>
+        <v>3.248861</v>
       </c>
       <c r="N7">
-        <v>4.056893000000001</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O7">
-        <v>0.1561348068917112</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P7">
-        <v>0.1561348068917112</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q7">
-        <v>12.339587740055</v>
+        <v>29.64554798320499</v>
       </c>
       <c r="R7">
-        <v>111.056289660495</v>
+        <v>266.8099318488449</v>
       </c>
       <c r="S7">
-        <v>0.0680503454789019</v>
+        <v>0.168395585065895</v>
       </c>
       <c r="T7">
-        <v>0.06805034547890189</v>
+        <v>0.1683955850658949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.318184</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H8">
-        <v>0.9545520000000001</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I8">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J8">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,43 +930,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.709791333333333</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N8">
-        <v>11.129374</v>
+        <v>10.797004</v>
       </c>
       <c r="O8">
-        <v>0.4283284425582907</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P8">
-        <v>0.4283284425582907</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q8">
-        <v>1.180396245605333</v>
+        <v>32.84054526153999</v>
       </c>
       <c r="R8">
-        <v>10.623566210448</v>
+        <v>295.56490735386</v>
       </c>
       <c r="S8">
-        <v>0.006509647972654528</v>
+        <v>0.1865441258273601</v>
       </c>
       <c r="T8">
-        <v>0.006509647972654527</v>
+        <v>0.18654412582736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.318184</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H9">
-        <v>0.9545520000000001</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I9">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J9">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.599001333333333</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N9">
-        <v>10.797004</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O9">
-        <v>0.4155367505499981</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P9">
-        <v>0.4155367505499981</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q9">
-        <v>1.145144640245333</v>
+        <v>0.247689462955</v>
       </c>
       <c r="R9">
-        <v>10.306301762208</v>
+        <v>2.229205166595</v>
       </c>
       <c r="S9">
-        <v>0.006315242456524762</v>
+        <v>0.001406950279772001</v>
       </c>
       <c r="T9">
-        <v>0.006315242456524761</v>
+        <v>0.001406950279772001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.318184</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H10">
-        <v>0.9545520000000001</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I10">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J10">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.352297666666667</v>
+        <v>1.711959</v>
       </c>
       <c r="N10">
-        <v>4.056893000000001</v>
+        <v>5.135877</v>
       </c>
       <c r="O10">
-        <v>0.1561348068917112</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P10">
-        <v>0.1561348068917112</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q10">
-        <v>0.4302794807706667</v>
+        <v>15.621463238895</v>
       </c>
       <c r="R10">
-        <v>3.872515326936001</v>
+        <v>140.593169150055</v>
       </c>
       <c r="S10">
-        <v>0.002372904827596444</v>
+        <v>0.08873458649472063</v>
       </c>
       <c r="T10">
-        <v>0.002372904827596444</v>
+        <v>0.0887345864947206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.427651</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H11">
-        <v>4.282953</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I11">
-        <v>0.06819056770966213</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J11">
-        <v>0.06819056770966211</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>3.709791333333333</v>
+        <v>0.03689</v>
       </c>
       <c r="N11">
-        <v>11.129374</v>
+        <v>0.11067</v>
       </c>
       <c r="O11">
-        <v>0.4283284425582907</v>
+        <v>0.004277668994692127</v>
       </c>
       <c r="P11">
-        <v>0.4283284425582907</v>
+        <v>0.004277668994692126</v>
       </c>
       <c r="Q11">
-        <v>5.296287306824667</v>
+        <v>0.3366177454499999</v>
       </c>
       <c r="R11">
-        <v>47.666585761422</v>
+        <v>3.029559709049999</v>
       </c>
       <c r="S11">
-        <v>0.02920795966424524</v>
+        <v>0.001912089539405</v>
       </c>
       <c r="T11">
-        <v>0.02920795966424524</v>
+        <v>0.001912089539404999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.427651</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H12">
-        <v>4.282953</v>
+        <v>0.790705</v>
       </c>
       <c r="I12">
-        <v>0.06819056770966213</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J12">
-        <v>0.06819056770966211</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.599001333333333</v>
+        <v>3.248861</v>
       </c>
       <c r="N12">
-        <v>10.797004</v>
+        <v>9.746582999999999</v>
       </c>
       <c r="O12">
-        <v>0.4155367505499981</v>
+        <v>0.3767295193213461</v>
       </c>
       <c r="P12">
-        <v>0.4155367505499981</v>
+        <v>0.376729519321346</v>
       </c>
       <c r="Q12">
-        <v>5.138117852534666</v>
+        <v>0.8562968790016666</v>
       </c>
       <c r="R12">
-        <v>46.243060672812</v>
+        <v>7.706671911014999</v>
       </c>
       <c r="S12">
-        <v>0.02833568692423262</v>
+        <v>0.004864022551085137</v>
       </c>
       <c r="T12">
-        <v>0.02833568692423262</v>
+        <v>0.004864022551085134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.427651</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H13">
-        <v>4.282953</v>
+        <v>0.790705</v>
       </c>
       <c r="I13">
-        <v>0.06819056770966213</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J13">
-        <v>0.06819056770966211</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.352297666666667</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N13">
-        <v>4.056893000000001</v>
+        <v>10.797004</v>
       </c>
       <c r="O13">
-        <v>0.1561348068917112</v>
+        <v>0.417330886838049</v>
       </c>
       <c r="P13">
-        <v>0.1561348068917112</v>
+        <v>0.4173308868380489</v>
       </c>
       <c r="Q13">
-        <v>1.930609116114334</v>
+        <v>0.9485827830911112</v>
       </c>
       <c r="R13">
-        <v>17.375482045029</v>
+        <v>8.537245047820001</v>
       </c>
       <c r="S13">
-        <v>0.01064692112118426</v>
+        <v>0.005388234106266414</v>
       </c>
       <c r="T13">
-        <v>0.01064692112118425</v>
+        <v>0.005388234106266412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.353022</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H14">
-        <v>1.059066</v>
+        <v>0.790705</v>
       </c>
       <c r="I14">
-        <v>0.01686180347577968</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J14">
-        <v>0.01686180347577968</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.709791333333333</v>
+        <v>0.02714433333333334</v>
       </c>
       <c r="N14">
-        <v>11.129374</v>
+        <v>0.08143300000000001</v>
       </c>
       <c r="O14">
-        <v>0.4283284425582907</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="P14">
-        <v>0.4283284425582907</v>
+        <v>0.003147586692371591</v>
       </c>
       <c r="Q14">
-        <v>1.309637956076</v>
+        <v>0.007154386696111112</v>
       </c>
       <c r="R14">
-        <v>11.786741604684</v>
+        <v>0.06438948026500001</v>
       </c>
       <c r="S14">
-        <v>0.007222390021504685</v>
+        <v>4.063905764743561E-05</v>
       </c>
       <c r="T14">
-        <v>0.007222390021504683</v>
+        <v>4.063905764743559E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,25 +1337,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.353022</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H15">
-        <v>1.059066</v>
+        <v>0.790705</v>
       </c>
       <c r="I15">
-        <v>0.01686180347577968</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J15">
-        <v>0.01686180347577968</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,710 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.599001333333333</v>
+        <v>1.711959</v>
       </c>
       <c r="N15">
-        <v>10.797004</v>
+        <v>5.135877</v>
       </c>
       <c r="O15">
-        <v>0.4155367505499981</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="P15">
-        <v>0.4155367505499981</v>
+        <v>0.1985143381535413</v>
       </c>
       <c r="Q15">
-        <v>1.270526648696</v>
+        <v>0.4512181803650001</v>
       </c>
       <c r="R15">
-        <v>11.434739838264</v>
+        <v>4.060963623285</v>
       </c>
       <c r="S15">
-        <v>0.007006699024738153</v>
+        <v>0.002563054308120033</v>
       </c>
       <c r="T15">
-        <v>0.007006699024738152</v>
+        <v>0.002563054308120032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2635683333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.790705</v>
+      </c>
+      <c r="I16">
+        <v>0.01291117977653399</v>
+      </c>
+      <c r="J16">
+        <v>0.01291117977653399</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03689</v>
+      </c>
+      <c r="N16">
+        <v>0.11067</v>
+      </c>
+      <c r="O16">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P16">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q16">
+        <v>0.009723035816666666</v>
+      </c>
+      <c r="R16">
+        <v>0.08750732234999999</v>
+      </c>
+      <c r="S16">
+        <v>5.522975341497549E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.522975341497546E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.353022</v>
-      </c>
-      <c r="H16">
-        <v>1.059066</v>
-      </c>
-      <c r="I16">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="J16">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.352297666666667</v>
-      </c>
-      <c r="N16">
-        <v>4.056893000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.1561348068917112</v>
-      </c>
-      <c r="P16">
-        <v>0.1561348068917112</v>
-      </c>
-      <c r="Q16">
-        <v>0.4773908268820001</v>
-      </c>
-      <c r="R16">
-        <v>4.296517441938001</v>
-      </c>
-      <c r="S16">
-        <v>0.002632714429536846</v>
-      </c>
-      <c r="T16">
-        <v>0.002632714429536846</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.428808</v>
+      </c>
+      <c r="I17">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J17">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.248861</v>
+      </c>
+      <c r="N17">
+        <v>9.746582999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3767295193213461</v>
+      </c>
+      <c r="P17">
+        <v>0.376729519321346</v>
+      </c>
+      <c r="Q17">
+        <v>5.879147529229333</v>
+      </c>
+      <c r="R17">
+        <v>52.912327763064</v>
+      </c>
+      <c r="S17">
+        <v>0.0333953175172933</v>
+      </c>
+      <c r="T17">
+        <v>0.03339531751729328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H18">
+        <v>5.428808</v>
+      </c>
+      <c r="I18">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J18">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N18">
+        <v>10.797004</v>
+      </c>
+      <c r="O18">
+        <v>0.417330886838049</v>
+      </c>
+      <c r="P18">
+        <v>0.4173308868380489</v>
+      </c>
+      <c r="Q18">
+        <v>6.512762410136889</v>
+      </c>
+      <c r="R18">
+        <v>58.61486169123201</v>
+      </c>
+      <c r="S18">
+        <v>0.0369944396734205</v>
+      </c>
+      <c r="T18">
+        <v>0.03699443967342049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H19">
+        <v>5.428808</v>
+      </c>
+      <c r="I19">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J19">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.02714433333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.08143300000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="P19">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="Q19">
+        <v>0.04912045798488889</v>
+      </c>
+      <c r="R19">
+        <v>0.442084121864</v>
+      </c>
+      <c r="S19">
+        <v>0.0002790189024590203</v>
+      </c>
+      <c r="T19">
+        <v>0.0002790189024590201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H20">
+        <v>5.428808</v>
+      </c>
+      <c r="I20">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J20">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.711959</v>
+      </c>
+      <c r="N20">
+        <v>5.135877</v>
+      </c>
+      <c r="O20">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="P20">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="Q20">
+        <v>3.097965571624</v>
+      </c>
+      <c r="R20">
+        <v>27.881690144616</v>
+      </c>
+      <c r="S20">
+        <v>0.01759737162703727</v>
+      </c>
+      <c r="T20">
+        <v>0.01759737162703726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H21">
+        <v>5.428808</v>
+      </c>
+      <c r="I21">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J21">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.03689</v>
+      </c>
+      <c r="N21">
+        <v>0.11067</v>
+      </c>
+      <c r="O21">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P21">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q21">
+        <v>0.06675624237333333</v>
+      </c>
+      <c r="R21">
+        <v>0.60080618136</v>
+      </c>
+      <c r="S21">
+        <v>0.0003791954359429197</v>
+      </c>
+      <c r="T21">
+        <v>0.0003791954359429194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J22">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.248861</v>
+      </c>
+      <c r="N22">
+        <v>9.746582999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.3767295193213461</v>
+      </c>
+      <c r="P22">
+        <v>0.376729519321346</v>
+      </c>
+      <c r="Q22">
+        <v>0.5975315980736667</v>
+      </c>
+      <c r="R22">
+        <v>5.377784382663</v>
+      </c>
+      <c r="S22">
+        <v>0.003394158310380339</v>
+      </c>
+      <c r="T22">
+        <v>0.003394158310380338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J23">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.599001333333334</v>
+      </c>
+      <c r="N23">
+        <v>10.797004</v>
+      </c>
+      <c r="O23">
+        <v>0.417330886838049</v>
+      </c>
+      <c r="P23">
+        <v>0.4173308868380489</v>
+      </c>
+      <c r="Q23">
+        <v>0.6619295248937779</v>
+      </c>
+      <c r="R23">
+        <v>5.957365724044001</v>
+      </c>
+      <c r="S23">
+        <v>0.003759957808168234</v>
+      </c>
+      <c r="T23">
+        <v>0.003759957808168233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J24">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02714433333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.08143300000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="P24">
+        <v>0.003147586692371591</v>
+      </c>
+      <c r="Q24">
+        <v>0.004992394834777779</v>
+      </c>
+      <c r="R24">
+        <v>0.04493155351300001</v>
+      </c>
+      <c r="S24">
+        <v>2.835829681942915E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.835829681942913E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J25">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.711959</v>
+      </c>
+      <c r="N25">
+        <v>5.135877</v>
+      </c>
+      <c r="O25">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="P25">
+        <v>0.1985143381535413</v>
+      </c>
+      <c r="Q25">
+        <v>0.314864069933</v>
+      </c>
+      <c r="R25">
+        <v>2.833776629397</v>
+      </c>
+      <c r="S25">
+        <v>0.001788522151880433</v>
+      </c>
+      <c r="T25">
+        <v>0.001788522151880432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J26">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.03689</v>
+      </c>
+      <c r="N26">
+        <v>0.11067</v>
+      </c>
+      <c r="O26">
+        <v>0.004277668994692127</v>
+      </c>
+      <c r="P26">
+        <v>0.004277668994692126</v>
+      </c>
+      <c r="Q26">
+        <v>0.006784821096666668</v>
+      </c>
+      <c r="R26">
+        <v>0.06106338987</v>
+      </c>
+      <c r="S26">
+        <v>3.853981443648427E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.853981443648425E-05</v>
       </c>
     </row>
   </sheetData>
